--- a/target/test-classes/pom/inetbaking/testdata/LoginDatanew.xlsx
+++ b/target/test-classes/pom/inetbaking/testdata/LoginDatanew.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE03B464-885B-43DA-9883-593FAEC0BA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F74BF1-0D41-41F6-BEA4-47F4C6DB41F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
     <t>mngr137319</t>
   </si>
   <si>
@@ -54,6 +47,12 @@
   </si>
   <si>
     <t>jahetAp2</t>
+  </si>
+  <si>
+    <t>mngr321902</t>
+  </si>
+  <si>
+    <t>Avadata</t>
   </si>
 </sst>
 </file>
@@ -446,7 +445,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,10 +464,10 @@
     </row>
     <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -481,26 +480,26 @@
     </row>
     <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
